--- a/static/download/2019/RP2_ERT_SU_2019_Jan_Oct.xlsx
+++ b/static/download/2019/RP2_ERT_SU_2019_Jan_Oct.xlsx
@@ -26,27 +26,27 @@
     <t>EUROCONTROL</t>
   </si>
   <si>
+    <t>Period Start</t>
+  </si>
+  <si>
     <t>Period</t>
   </si>
   <si>
     <t>Comment</t>
   </si>
   <si>
-    <t>Period Start</t>
-  </si>
-  <si>
     <t>ALL</t>
   </si>
   <si>
     <t>Meta data</t>
   </si>
   <si>
+    <t>N/A</t>
+  </si>
+  <si>
     <t>Update Q4</t>
   </si>
   <si>
-    <t>N/A</t>
-  </si>
-  <si>
     <t>Actual 2016 SU</t>
   </si>
   <si>
@@ -62,22 +62,28 @@
     <t>Release date</t>
   </si>
   <si>
+    <t>Period End</t>
+  </si>
+  <si>
+    <t>Contact</t>
+  </si>
+  <si>
+    <t>pru-support@eurocontrol.int</t>
+  </si>
+  <si>
     <t>Update Q1</t>
   </si>
   <si>
-    <t>Period End</t>
-  </si>
-  <si>
     <t>Q2 2017</t>
   </si>
   <si>
-    <t>Contact</t>
+    <t>Period: JAN-OCT</t>
   </si>
   <si>
     <t>Update Q2</t>
   </si>
   <si>
-    <t>pru-support@eurocontrol.int</t>
+    <t>SOURCE: CRCO</t>
   </si>
   <si>
     <t>Q3 2017</t>
@@ -92,49 +98,43 @@
     <t>Full year update</t>
   </si>
   <si>
+    <t>En-route service units</t>
+  </si>
+  <si>
     <t>data update</t>
   </si>
   <si>
+    <t>Actual [2018]</t>
+  </si>
+  <si>
     <t>14 Dec. 2018</t>
   </si>
   <si>
-    <t>Period: JAN-OCT</t>
+    <t>Daily ER SU [2018]</t>
+  </si>
+  <si>
+    <t>Actual [2019]</t>
+  </si>
+  <si>
+    <t>Daily ER SU [actual, 2019]</t>
+  </si>
+  <si>
+    <t>19/18 (%)</t>
+  </si>
+  <si>
+    <t>Det. [2019]</t>
+  </si>
+  <si>
+    <t>Daily ER SU [2019]</t>
+  </si>
+  <si>
+    <t>act./det.(%)</t>
+  </si>
+  <si>
+    <t>SES RP2 Area</t>
   </si>
   <si>
     <t>21 Mar. 2019</t>
-  </si>
-  <si>
-    <t>SOURCE: CRCO</t>
-  </si>
-  <si>
-    <t>En-route service units</t>
-  </si>
-  <si>
-    <t>Actual [2018]</t>
-  </si>
-  <si>
-    <t>Daily ER SU [2018]</t>
-  </si>
-  <si>
-    <t>Actual [2019]</t>
-  </si>
-  <si>
-    <t>Daily ER SU [actual, 2019]</t>
-  </si>
-  <si>
-    <t>19/18 (%)</t>
-  </si>
-  <si>
-    <t>Det. [2019]</t>
-  </si>
-  <si>
-    <t>Daily ER SU [2019]</t>
-  </si>
-  <si>
-    <t>act./det.(%)</t>
-  </si>
-  <si>
-    <t>SES RP2 Area</t>
   </si>
   <si>
     <t>Austria</t>
@@ -235,8 +235,8 @@
     <numFmt numFmtId="164" formatCode="d&quot; &quot;mmm&quot; &quot;yyyy"/>
     <numFmt numFmtId="165" formatCode="d mmm yyyy"/>
     <numFmt numFmtId="166" formatCode="d mmm. yyyy"/>
-    <numFmt numFmtId="167" formatCode="mmm yyyy"/>
-    <numFmt numFmtId="168" formatCode="m/d/yyyy"/>
+    <numFmt numFmtId="167" formatCode="m/d/yyyy"/>
+    <numFmt numFmtId="168" formatCode="mmm yyyy"/>
     <numFmt numFmtId="169" formatCode="0.0%"/>
   </numFmts>
   <fonts count="14">
@@ -368,12 +368,12 @@
       <bottom/>
     </border>
     <border>
+      <top/>
+      <bottom/>
+    </border>
+    <border>
       <left/>
       <right/>
-    </border>
-    <border>
-      <top/>
-      <bottom/>
     </border>
     <border>
       <right/>
@@ -429,122 +429,122 @@
     <xf borderId="2" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="0"/>
     </xf>
+    <xf borderId="2" fillId="4" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
     <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="2" fillId="4" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="3" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="4" fillId="4" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="3" fillId="4" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="4" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf borderId="0" fillId="4" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    <xf borderId="5" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="5" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" wrapText="0"/>
+    <xf borderId="2" fillId="4" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="4" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="4" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    <xf borderId="6" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="7" fillId="4" fontId="8" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="8" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="7" fillId="4" fontId="5" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="4" fontId="1" numFmtId="17" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="6" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="0"/>
+    <xf borderId="6" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="7" fillId="4" fontId="8" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
+    <xf borderId="6" fillId="4" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="10" numFmtId="167" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" shrinkToFit="0" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="8" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf borderId="2" fillId="4" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="4" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="7" fillId="4" fontId="5" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
+    <xf borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf borderId="6" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" wrapText="0"/>
+    <xf borderId="9" fillId="4" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="4" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf borderId="6" fillId="4" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="1" numFmtId="167" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="9" fillId="4" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="9" fillId="4" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="9" fillId="4" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="1" numFmtId="168" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="10" numFmtId="168" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="1" numFmtId="167" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="9" fillId="2" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="1" numFmtId="168" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="2" fillId="4" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf borderId="9" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="9" fillId="2" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf borderId="9" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="4" fontId="4" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="9" fillId="4" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="9" fillId="4" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="9" fillId="4" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="9" fillId="4" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="9" fillId="2" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="9" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="9" fillId="2" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="9" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="9" fillId="5" fontId="1" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
@@ -596,112 +596,112 @@
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="8">
+      <c r="C1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="7">
         <v>43101.0</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
+      <c r="F1" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
     </row>
     <row r="2" ht="12.75" customHeight="1">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="18">
+      <c r="B2" s="16">
         <v>43781.0</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="18">
+        <v>43769.0</v>
+      </c>
+      <c r="E2" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="22">
-        <v>43769.0</v>
-      </c>
-      <c r="E2" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" s="26" t="s">
+      <c r="F2" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+    </row>
+    <row r="3" ht="12.75" customHeight="1">
+      <c r="A3" s="25"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+    </row>
+    <row r="4" ht="13.5" customHeight="1">
+      <c r="A4" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-    </row>
-    <row r="3" ht="12.75" customHeight="1">
-      <c r="A3" s="30"/>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
-    </row>
-    <row r="4" ht="13.5" customHeight="1">
-      <c r="A4" s="34" t="s">
+      <c r="B4" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="32">
+        <v>304.0</v>
+      </c>
+      <c r="D4" s="33"/>
+      <c r="E4" s="32">
+        <v>304.0</v>
+      </c>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="32">
+        <v>304.0</v>
+      </c>
+      <c r="I4" s="33"/>
+    </row>
+    <row r="5" ht="25.5" customHeight="1">
+      <c r="A5" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="35" t="s">
+      <c r="B5" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="36">
-        <v>304.0</v>
-      </c>
-      <c r="D4" s="37"/>
-      <c r="E4" s="36">
-        <v>304.0</v>
-      </c>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="36">
-        <v>304.0</v>
-      </c>
-      <c r="I4" s="37"/>
-    </row>
-    <row r="5" ht="25.5" customHeight="1">
-      <c r="A5" s="38" t="s">
-        <v>31</v>
-      </c>
-      <c r="B5" s="39" t="s">
+      <c r="C5" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="40" t="s">
+      <c r="D5" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="39" t="s">
+      <c r="E5" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="E5" s="39" t="s">
+      <c r="F5" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="F5" s="39" t="s">
+      <c r="G5" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="G5" s="39" t="s">
+      <c r="H5" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="H5" s="39" t="s">
+      <c r="I5" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="I5" s="38" t="s">
+    </row>
+    <row r="6" ht="12.75" customHeight="1">
+      <c r="A6" s="40" t="s">
         <v>39</v>
-      </c>
-    </row>
-    <row r="6" ht="12.75" customHeight="1">
-      <c r="A6" s="41" t="s">
-        <v>40</v>
       </c>
       <c r="B6" s="42">
         <f>sum(B7:B36)</f>
@@ -737,7 +737,7 @@
       </c>
     </row>
     <row r="7" ht="12.75" customHeight="1">
-      <c r="A7" s="41" t="s">
+      <c r="A7" s="40" t="s">
         <v>41</v>
       </c>
       <c r="B7" s="44">
@@ -771,7 +771,7 @@
       </c>
     </row>
     <row r="8" ht="12.75" customHeight="1">
-      <c r="A8" s="41" t="s">
+      <c r="A8" s="40" t="s">
         <v>42</v>
       </c>
       <c r="B8" s="44">
@@ -805,7 +805,7 @@
       </c>
     </row>
     <row r="9" ht="12.75" customHeight="1">
-      <c r="A9" s="41" t="s">
+      <c r="A9" s="40" t="s">
         <v>43</v>
       </c>
       <c r="B9" s="44">
@@ -839,7 +839,7 @@
       </c>
     </row>
     <row r="10" ht="12.75" customHeight="1">
-      <c r="A10" s="41" t="s">
+      <c r="A10" s="40" t="s">
         <v>44</v>
       </c>
       <c r="B10" s="44">
@@ -873,7 +873,7 @@
       </c>
     </row>
     <row r="11" ht="12.75" customHeight="1">
-      <c r="A11" s="41" t="s">
+      <c r="A11" s="40" t="s">
         <v>45</v>
       </c>
       <c r="B11" s="44">
@@ -907,7 +907,7 @@
       </c>
     </row>
     <row r="12" ht="12.75" customHeight="1">
-      <c r="A12" s="41" t="s">
+      <c r="A12" s="40" t="s">
         <v>46</v>
       </c>
       <c r="B12" s="44">
@@ -941,7 +941,7 @@
       </c>
     </row>
     <row r="13" ht="12.75" customHeight="1">
-      <c r="A13" s="41" t="s">
+      <c r="A13" s="40" t="s">
         <v>47</v>
       </c>
       <c r="B13" s="44">
@@ -975,7 +975,7 @@
       </c>
     </row>
     <row r="14" ht="12.75" customHeight="1">
-      <c r="A14" s="41" t="s">
+      <c r="A14" s="40" t="s">
         <v>48</v>
       </c>
       <c r="B14" s="44">
@@ -1009,7 +1009,7 @@
       </c>
     </row>
     <row r="15" ht="12.75" customHeight="1">
-      <c r="A15" s="41" t="s">
+      <c r="A15" s="40" t="s">
         <v>49</v>
       </c>
       <c r="B15" s="44">
@@ -1043,7 +1043,7 @@
       </c>
     </row>
     <row r="16" ht="12.75" customHeight="1">
-      <c r="A16" s="41" t="s">
+      <c r="A16" s="40" t="s">
         <v>50</v>
       </c>
       <c r="B16" s="44">
@@ -1077,7 +1077,7 @@
       </c>
     </row>
     <row r="17" ht="12.75" customHeight="1">
-      <c r="A17" s="41" t="s">
+      <c r="A17" s="40" t="s">
         <v>51</v>
       </c>
       <c r="B17" s="44">
@@ -1111,7 +1111,7 @@
       </c>
     </row>
     <row r="18" ht="12.75" customHeight="1">
-      <c r="A18" s="41" t="s">
+      <c r="A18" s="40" t="s">
         <v>52</v>
       </c>
       <c r="B18" s="44">
@@ -1145,7 +1145,7 @@
       </c>
     </row>
     <row r="19" ht="12.75" customHeight="1">
-      <c r="A19" s="41" t="s">
+      <c r="A19" s="40" t="s">
         <v>53</v>
       </c>
       <c r="B19" s="44">
@@ -1179,7 +1179,7 @@
       </c>
     </row>
     <row r="20" ht="12.75" customHeight="1">
-      <c r="A20" s="41" t="s">
+      <c r="A20" s="40" t="s">
         <v>54</v>
       </c>
       <c r="B20" s="44">
@@ -1213,7 +1213,7 @@
       </c>
     </row>
     <row r="21" ht="12.75" customHeight="1">
-      <c r="A21" s="41" t="s">
+      <c r="A21" s="40" t="s">
         <v>55</v>
       </c>
       <c r="B21" s="44">
@@ -1247,7 +1247,7 @@
       </c>
     </row>
     <row r="22" ht="12.75" customHeight="1">
-      <c r="A22" s="41" t="s">
+      <c r="A22" s="40" t="s">
         <v>56</v>
       </c>
       <c r="B22" s="44">
@@ -1281,7 +1281,7 @@
       </c>
     </row>
     <row r="23" ht="12.75" customHeight="1">
-      <c r="A23" s="41" t="s">
+      <c r="A23" s="40" t="s">
         <v>57</v>
       </c>
       <c r="B23" s="44">
@@ -1315,7 +1315,7 @@
       </c>
     </row>
     <row r="24" ht="12.75" customHeight="1">
-      <c r="A24" s="41" t="s">
+      <c r="A24" s="40" t="s">
         <v>58</v>
       </c>
       <c r="B24" s="44">
@@ -1349,7 +1349,7 @@
       </c>
     </row>
     <row r="25" ht="12.75" customHeight="1">
-      <c r="A25" s="41" t="s">
+      <c r="A25" s="40" t="s">
         <v>59</v>
       </c>
       <c r="B25" s="44">
@@ -1383,7 +1383,7 @@
       </c>
     </row>
     <row r="26" ht="12.75" customHeight="1">
-      <c r="A26" s="41" t="s">
+      <c r="A26" s="40" t="s">
         <v>60</v>
       </c>
       <c r="B26" s="44">
@@ -1417,7 +1417,7 @@
       </c>
     </row>
     <row r="27" ht="12.75" customHeight="1">
-      <c r="A27" s="41" t="s">
+      <c r="A27" s="40" t="s">
         <v>61</v>
       </c>
       <c r="B27" s="44">
@@ -1451,7 +1451,7 @@
       </c>
     </row>
     <row r="28" ht="12.75" customHeight="1">
-      <c r="A28" s="41" t="s">
+      <c r="A28" s="40" t="s">
         <v>62</v>
       </c>
       <c r="B28" s="44">
@@ -1485,7 +1485,7 @@
       </c>
     </row>
     <row r="29" ht="12.75" customHeight="1">
-      <c r="A29" s="41" t="s">
+      <c r="A29" s="40" t="s">
         <v>63</v>
       </c>
       <c r="B29" s="44">
@@ -1519,7 +1519,7 @@
       </c>
     </row>
     <row r="30" ht="12.75" customHeight="1">
-      <c r="A30" s="41" t="s">
+      <c r="A30" s="40" t="s">
         <v>64</v>
       </c>
       <c r="B30" s="44">
@@ -1553,7 +1553,7 @@
       </c>
     </row>
     <row r="31" ht="12.75" customHeight="1">
-      <c r="A31" s="41" t="s">
+      <c r="A31" s="40" t="s">
         <v>65</v>
       </c>
       <c r="B31" s="44">
@@ -1587,7 +1587,7 @@
       </c>
     </row>
     <row r="32" ht="12.75" customHeight="1">
-      <c r="A32" s="41" t="s">
+      <c r="A32" s="40" t="s">
         <v>66</v>
       </c>
       <c r="B32" s="44">
@@ -1621,7 +1621,7 @@
       </c>
     </row>
     <row r="33" ht="12.75" customHeight="1">
-      <c r="A33" s="41" t="s">
+      <c r="A33" s="40" t="s">
         <v>67</v>
       </c>
       <c r="B33" s="44">
@@ -1655,7 +1655,7 @@
       </c>
     </row>
     <row r="34" ht="12.75" customHeight="1">
-      <c r="A34" s="41" t="s">
+      <c r="A34" s="40" t="s">
         <v>68</v>
       </c>
       <c r="B34" s="44">
@@ -1689,7 +1689,7 @@
       </c>
     </row>
     <row r="35" ht="12.75" customHeight="1">
-      <c r="A35" s="41" t="s">
+      <c r="A35" s="40" t="s">
         <v>69</v>
       </c>
       <c r="B35" s="44">
@@ -1723,7 +1723,7 @@
       </c>
     </row>
     <row r="36" ht="12.75" customHeight="1">
-      <c r="A36" s="41" t="s">
+      <c r="A36" s="40" t="s">
         <v>70</v>
       </c>
       <c r="B36" s="44">
@@ -1781,350 +1781,350 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>4</v>
+      <c r="C1" s="4" t="s">
+        <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" ht="12.75" customHeight="1">
-      <c r="A2" s="5">
+      <c r="A2" s="6">
         <v>42779.0</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="9">
+      <c r="C2" s="10">
         <v>2016.0</v>
       </c>
-      <c r="D2" s="11" t="s">
-        <v>9</v>
+      <c r="D2" s="12" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="3" ht="12.0" customHeight="1">
-      <c r="A3" s="5">
+      <c r="A3" s="6">
         <v>42828.0</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="10">
         <v>2016.0</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="12" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" ht="12.0" customHeight="1">
-      <c r="A4" s="5">
+      <c r="A4" s="6">
         <v>42839.0</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="10">
         <v>2015.0</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="12" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="13">
+      <c r="A5" s="14">
         <v>42853.0</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="17">
+      <c r="C5" s="21">
         <v>2017.0</v>
       </c>
-      <c r="D5" s="19" t="s">
-        <v>16</v>
+      <c r="D5" s="24" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="21">
+      <c r="A6" s="26">
         <v>42957.0</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="19" t="s">
+      <c r="C6" s="28" t="s">
         <v>20</v>
       </c>
+      <c r="D6" s="24" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="25">
+      <c r="A7" s="30">
         <v>43061.0</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="19" t="s">
-        <v>23</v>
+      <c r="C7" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="24" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" s="15" t="s">
+      <c r="A8" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="23">
+      <c r="C8" s="28">
         <v>2017.0</v>
       </c>
-      <c r="D8" s="19" t="s">
-        <v>25</v>
+      <c r="D8" s="24" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="25">
+      <c r="A9" s="30">
         <v>43273.0</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="27">
+      <c r="C9" s="34">
         <v>43221.0</v>
       </c>
-      <c r="D9" s="19" t="s">
-        <v>26</v>
+      <c r="D9" s="24" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="25">
+      <c r="A10" s="30">
         <v>43301.0</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="27">
+      <c r="C10" s="34">
         <v>43252.0</v>
       </c>
-      <c r="D10" s="19" t="s">
-        <v>26</v>
+      <c r="D10" s="24" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="25">
+      <c r="A11" s="30">
         <v>43332.0</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="27">
+      <c r="C11" s="34">
         <v>43282.0</v>
       </c>
-      <c r="D11" s="19" t="s">
-        <v>26</v>
+      <c r="D11" s="24" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="25">
+      <c r="A12" s="30">
         <v>43357.0</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="27">
+      <c r="C12" s="34">
         <v>43313.0</v>
       </c>
-      <c r="D12" s="19" t="s">
-        <v>26</v>
+      <c r="D12" s="24" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="13" ht="12.75" customHeight="1">
-      <c r="A13" s="25">
+      <c r="A13" s="30">
         <v>43396.0</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="27">
+      <c r="C13" s="34">
         <v>43344.0</v>
       </c>
-      <c r="D13" s="19" t="s">
-        <v>26</v>
+      <c r="D13" s="24" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="14" ht="12.75" customHeight="1">
-      <c r="A14" s="21">
+      <c r="A14" s="26">
         <v>43424.0</v>
       </c>
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="29">
+      <c r="C14" s="36">
         <v>43374.0</v>
       </c>
-      <c r="D14" s="19" t="s">
-        <v>26</v>
+      <c r="D14" s="24" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="15" ht="12.75" customHeight="1">
-      <c r="A15" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="B15" s="15" t="s">
+      <c r="A15" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="29">
+      <c r="C15" s="36">
         <v>43405.0</v>
       </c>
-      <c r="D15" s="19" t="s">
-        <v>26</v>
+      <c r="D15" s="24" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="16" ht="12.75" customHeight="1">
-      <c r="A16" s="33">
+      <c r="A16" s="41">
         <v>43480.0</v>
       </c>
-      <c r="B16" s="15" t="s">
+      <c r="B16" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="29">
+      <c r="C16" s="36">
         <v>43435.0</v>
       </c>
-      <c r="D16" s="19" t="s">
-        <v>26</v>
+      <c r="D16" s="24" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="17" ht="12.75" customHeight="1">
-      <c r="A17" s="33">
+      <c r="A17" s="41">
         <v>43514.0</v>
       </c>
-      <c r="B17" s="15" t="s">
+      <c r="B17" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="29">
+      <c r="C17" s="36">
         <v>43466.0</v>
       </c>
-      <c r="D17" s="19" t="s">
-        <v>26</v>
+      <c r="D17" s="24" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="18" ht="12.75" customHeight="1">
-      <c r="A18" s="31" t="s">
+      <c r="A18" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="36">
+        <v>43497.0</v>
+      </c>
+      <c r="D18" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="B18" s="15" t="s">
+    </row>
+    <row r="19" ht="12.75" customHeight="1">
+      <c r="A19" s="41">
+        <v>43570.0</v>
+      </c>
+      <c r="B19" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C18" s="29">
-        <v>43497.0</v>
-      </c>
-      <c r="D18" s="19" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="19" ht="12.75" customHeight="1">
-      <c r="A19" s="33">
-        <v>43570.0</v>
-      </c>
-      <c r="B19" s="15" t="s">
+      <c r="C19" s="36">
+        <v>43525.0</v>
+      </c>
+      <c r="D19" s="24" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" ht="12.75" customHeight="1">
+      <c r="A20" s="41">
+        <v>43600.0</v>
+      </c>
+      <c r="B20" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="29">
-        <v>43525.0</v>
-      </c>
-      <c r="D19" s="19" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="20" ht="12.75" customHeight="1">
-      <c r="A20" s="33">
-        <v>43600.0</v>
-      </c>
-      <c r="B20" s="15" t="s">
+      <c r="C20" s="36">
+        <v>43556.0</v>
+      </c>
+      <c r="D20" s="24" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" ht="12.75" customHeight="1">
+      <c r="A21" s="41">
+        <v>43633.0</v>
+      </c>
+      <c r="B21" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C20" s="29">
-        <v>43556.0</v>
-      </c>
-      <c r="D20" s="19" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="21" ht="12.75" customHeight="1">
-      <c r="A21" s="33">
-        <v>43633.0</v>
-      </c>
-      <c r="B21" s="15" t="s">
+      <c r="C21" s="36">
+        <v>43586.0</v>
+      </c>
+      <c r="D21" s="24" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" ht="12.75" customHeight="1">
+      <c r="A22" s="41">
+        <v>43663.0</v>
+      </c>
+      <c r="B22" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C21" s="29">
-        <v>43586.0</v>
-      </c>
-      <c r="D21" s="19" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="22" ht="12.75" customHeight="1">
-      <c r="A22" s="33">
-        <v>43663.0</v>
-      </c>
-      <c r="B22" s="15" t="s">
+      <c r="C22" s="36">
+        <v>43617.0</v>
+      </c>
+      <c r="D22" s="24" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" ht="12.75" customHeight="1">
+      <c r="A23" s="41">
+        <v>43704.0</v>
+      </c>
+      <c r="B23" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C22" s="29">
-        <v>43617.0</v>
-      </c>
-      <c r="D22" s="19" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="23" ht="12.75" customHeight="1">
-      <c r="A23" s="33">
-        <v>43704.0</v>
-      </c>
-      <c r="B23" s="15" t="s">
+      <c r="C23" s="36">
+        <v>43647.0</v>
+      </c>
+      <c r="D23" s="24" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" ht="12.75" customHeight="1">
+      <c r="A24" s="41">
+        <v>43726.0</v>
+      </c>
+      <c r="B24" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C23" s="29">
-        <v>43647.0</v>
-      </c>
-      <c r="D23" s="19" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="24" ht="12.75" customHeight="1">
-      <c r="A24" s="33">
-        <v>43726.0</v>
-      </c>
-      <c r="B24" s="15" t="s">
+      <c r="C24" s="36">
+        <v>43678.0</v>
+      </c>
+      <c r="D24" s="24" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" ht="12.75" customHeight="1">
+      <c r="A25" s="41">
+        <v>43781.0</v>
+      </c>
+      <c r="B25" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C24" s="29">
-        <v>43678.0</v>
-      </c>
-      <c r="D24" s="19" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="25" ht="12.75" customHeight="1">
-      <c r="A25" s="33">
-        <v>43781.0</v>
-      </c>
-      <c r="B25" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="C25" s="29">
+      <c r="C25" s="36">
         <v>43739.0</v>
       </c>
-      <c r="D25" s="19" t="s">
-        <v>26</v>
+      <c r="D25" s="24" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
